--- a/data/georgia_census/samegrelo/martvili/population_total.xlsx
+++ b/data/georgia_census/samegrelo/martvili/population_total.xlsx
@@ -1353,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8098E258-24DE-4900-BE72-548FA898E44E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAFFE5C-1DE7-426E-8F66-C77591741E29}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB3F268-843F-4B5D-9CB1-D6FA40AB640A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A28E158A-2098-4F26-947E-7C9D20C94458}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A525335-8FB7-4029-BCEA-C4DBFC54F56B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA7E90BF-663E-4BD0-9820-B97D1E1A1CDE}"/>
 </file>